--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26A8A9-4BB6-4427-A795-51FFD98A2184}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A991B19-4FAA-41DD-A06D-6CD645A75A46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1646,8 +1646,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,42 +2023,42 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>12</v>
+      <c r="B4" s="2">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,13 +2066,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,13 +2080,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,13 +2094,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
